--- a/student_timetables/Eva QI_timetable.xlsx
+++ b/student_timetables/Eva QI_timetable.xlsx
@@ -429,15 +429,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="33" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="36" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="32" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="34" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="56" customWidth="1" min="12" max="12"/>
   </cols>
@@ -549,7 +549,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Private lesson with RETY, Stephane</t>
+          <t>Private lesson with Stephane RETY</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Free Time</t>
+          <t>Master class with Ivy &amp; Stephane</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Private lesson with RETY, Stephane</t>
+          <t>Private lesson with Stephane RETY</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Private lesson with CHUANG, Ivy</t>
+          <t>Private lesson with Ivy CHUANG</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>Free Time</t>
+          <t>Master class with Ivy &amp; Stephane</t>
         </is>
       </c>
     </row>
@@ -889,31 +889,6 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Free Time</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>Free Time</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>Free Time</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>Free Time</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>Free Time</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1124,43 +1099,36 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="44">
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="B3:B6"/>
+    <mergeCell ref="F28:F30"/>
     <mergeCell ref="F24:F27"/>
+    <mergeCell ref="H28:H30"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B32:B39"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="J24:J27"/>
+    <mergeCell ref="L45:L51"/>
     <mergeCell ref="D15:D19"/>
-    <mergeCell ref="L45:L51"/>
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="L33:L36"/>
     <mergeCell ref="F3:F6"/>
-    <mergeCell ref="J28:J31"/>
     <mergeCell ref="L7:L14"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="J20:J23"/>
     <mergeCell ref="L15:L20"/>
     <mergeCell ref="L27:L29"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D28:D31"/>
     <mergeCell ref="L52:L58"/>
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D7:D14"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="J28:J30"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F32:F39"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="H32:H39"/>
-    <mergeCell ref="J32:J39"/>
     <mergeCell ref="L37:L41"/>
-    <mergeCell ref="F28:F31"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="J7:J14"/>
@@ -1174,6 +1142,8 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="L42:L44"/>
     <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
